--- a/parallel liz/benchmarks.xlsx
+++ b/parallel liz/benchmarks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="commands" sheetId="6" r:id="rId1"/>
@@ -185,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -295,8 +295,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,7 +307,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9745,10 +9745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N92" sqref="N92:R97"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q93" sqref="Q93:Q97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13112,8 +13112,7 @@
         <v>3.7063348940006398</v>
       </c>
       <c r="Q93" s="9">
-        <f>$F$91/O93</f>
-        <v>80.918368999999998</v>
+        <v>1.6258739539408684</v>
       </c>
       <c r="R93" s="9">
         <f>(1/(P93) - 1/H93)/(1-1/H93)</f>
@@ -13172,11 +13171,10 @@
         <v>0.27553978732272849</v>
       </c>
       <c r="Q94" s="9">
-        <f t="shared" ref="Q94:Q97" si="25">$F$91/O94</f>
-        <v>15.702989999999998</v>
+        <v>2.9773833331471766</v>
       </c>
       <c r="R94" s="9">
-        <f t="shared" ref="R94:R97" si="26">(1/(P94) - 1/H94)/(1-1/H94)</f>
+        <f t="shared" ref="R94:R97" si="25">(1/(P94) - 1/H94)/(1-1/H94)</f>
         <v>4.0656942275580183</v>
       </c>
     </row>
@@ -13232,11 +13230,10 @@
         <v>0.2805440926596014</v>
       </c>
       <c r="Q95" s="9">
+        <v>4.8955807798590278</v>
+      </c>
+      <c r="R95" s="9">
         <f t="shared" si="25"/>
-        <v>12.739561</v>
-      </c>
-      <c r="R95" s="9">
-        <f t="shared" si="26"/>
         <v>4.2789865734501822</v>
       </c>
     </row>
@@ -13292,11 +13289,10 @@
         <v>0.26601775477166761</v>
       </c>
       <c r="Q96" s="9">
+        <v>7.4928573047242022</v>
+      </c>
+      <c r="R96" s="9">
         <f t="shared" si="25"/>
-        <v>10.725018</v>
-      </c>
-      <c r="R96" s="9">
-        <f t="shared" si="26"/>
         <v>5.7620276736131926</v>
       </c>
     </row>
@@ -13352,12 +13348,16 @@
         <v>0.2946281987660378</v>
       </c>
       <c r="Q97" s="9">
+        <v>14.462964598606151</v>
+      </c>
+      <c r="R97" s="9">
         <f t="shared" si="25"/>
-        <v>10.889367999999999</v>
-      </c>
-      <c r="R97" s="9">
-        <f t="shared" si="26"/>
         <v>4.6262411995006669</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <v>11.684097503958466</v>
       </c>
     </row>
   </sheetData>
